--- a/Mechanism/assets/mockup.xlsx
+++ b/Mechanism/assets/mockup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="7350"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mockup" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,650 +1416,650 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="str">
         <f>CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1,",",G1,",",H1,",",I1,",",J1,",",K1,",",L1,",",M1,",",N1,",",O1,",",P1)</f>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>10,12,12,12,12,12,12,12,12,12,12,12,11,11,11,11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O2" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P2" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q12" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2)</f>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>12,12,12,12,12,12,12,12,12,12,12,12,11,11,11,11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N3" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O3" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P3" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>12,12,12,12,12,12,12,12,12,12,12,12,11,11,11,11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N4" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P4" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>12,12,12,12,12,12,12,12,12,12,12,10,11,11,11,11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>1,1,1,1,1,1,1,1,2,2,2,10,11,11,11,11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>1,1,1,1,1,1,1,1,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N7" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O7" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P7" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>1,1,1,1,1,1,1,1,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N8" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O8" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P8" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>1,1,1,1,1,1,1,1,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N9" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>12,12,12,12,2,2,2,2,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O10" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P10" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>12,12,12,10,10,2,2,2,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N11" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O11" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P11" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>12,12,12,12,2,2,2,2,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N12" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O12" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P12" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,4,4,4,4</v>
+        <v>10,12,12,12,2,2,2,2,2,2,2,2,11,11,11,11</v>
       </c>
     </row>
   </sheetData>
